--- a/dtpu_configurations/only_integer16/30mhz/mxu_10x10/timing.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_10x10/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>11.906431198120117</v>
+        <v>10.227231979370117</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.021372348070144653</v>
+        <v>0.017686963081359863</v>
       </c>
     </row>
   </sheetData>
